--- a/excel/finished/焦化/CK67-化产-脱硫解吸（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-化产-脱硫解吸（日）报表设计.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="124">
   <si>
     <t xml:space="preserve"> 6-7# 焦 炉 脱 硫 解 吸 操 作 记 录</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>KCNS(g/l)</t>
+  </si>
+  <si>
+    <t>脱硫贫液</t>
   </si>
   <si>
     <t>夜班平均</t>
@@ -554,8 +557,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -626,6 +629,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="65"/>
@@ -634,9 +697,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color indexed="4"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -659,97 +752,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -787,8 +790,56 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="26"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor theme="4" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor theme="4" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor theme="6" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
@@ -799,14 +850,50 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="47"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor theme="5" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor theme="5" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor theme="6" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor theme="6" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
@@ -817,98 +904,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor theme="5" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor theme="7" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor theme="6" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor theme="5" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor theme="6" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor theme="8" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor theme="6" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor theme="5" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor theme="4" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor theme="8" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
       </patternFill>
     </fill>
     <fill>
@@ -925,38 +928,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor theme="8" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor theme="8" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor theme="8" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor theme="7" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor theme="5" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor theme="4" tint="0.599993896298105"/>
       </patternFill>
     </fill>
     <fill>
@@ -1525,41 +1528,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1588,6 +1561,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1602,8 +1590,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1622,151 +1610,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="46">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="52">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="47">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="47">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="50">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="51">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="46">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="48">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="49">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="52">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="48">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="46">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="51">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
@@ -2450,7 +2453,7 @@
   <dimension ref="A1:BD37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09166666666667" defaultRowHeight="14.25"/>
@@ -5689,7 +5692,7 @@
         <v/>
       </c>
       <c r="AZ19" s="70" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="BA19" s="71" t="s">
         <v>90</v>
@@ -8247,7 +8250,7 @@
     </row>
     <row r="32" ht="25" customHeight="1" spans="2:56">
       <c r="B32" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C32" s="25" t="str">
         <f t="shared" ref="C32:AY32" si="0">IF(C8="","",AVERAGE(C8:C15))</f>
@@ -8453,7 +8456,7 @@
     </row>
     <row r="33" ht="25" customHeight="1" spans="2:56">
       <c r="B33" s="26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C33" s="25" t="str">
         <f t="shared" ref="C33:AY33" si="1">IF(C14="","",AVERAGE(C14:C23))</f>
@@ -8659,7 +8662,7 @@
     </row>
     <row r="34" ht="25" customHeight="1" spans="2:56">
       <c r="B34" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C34" s="25" t="str">
         <f t="shared" ref="C34:AY34" si="2">IF(C22="","",AVERAGE(C22:C31))</f>
@@ -8865,7 +8868,7 @@
     </row>
     <row r="35" ht="25" customHeight="1" spans="2:56">
       <c r="B35" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C35" s="28" t="str">
         <f t="shared" ref="C35:AY35" si="3">IF(C8="","",AVERAGE(C8:C31))</f>
@@ -9071,7 +9074,7 @@
     </row>
     <row r="36" ht="66" customHeight="1" spans="2:56">
       <c r="B36" s="29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
@@ -9089,7 +9092,7 @@
       <c r="P36" s="30"/>
       <c r="Q36" s="36"/>
       <c r="R36" s="37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S36" s="30"/>
       <c r="T36" s="30"/>
@@ -9106,7 +9109,7 @@
       <c r="AE36" s="30"/>
       <c r="AF36" s="36"/>
       <c r="AG36" s="37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AH36" s="30"/>
       <c r="AI36" s="30"/>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="37" ht="27" customHeight="1" spans="2:56">
       <c r="B37" s="31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C37" s="32"/>
       <c r="D37" s="32"/>
@@ -9152,7 +9155,7 @@
       <c r="P37" s="32"/>
       <c r="Q37" s="38"/>
       <c r="R37" s="39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S37" s="32"/>
       <c r="T37" s="32"/>
@@ -9169,7 +9172,7 @@
       <c r="AE37" s="32"/>
       <c r="AF37" s="38"/>
       <c r="AG37" s="39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AH37" s="32"/>
       <c r="AI37" s="32"/>
@@ -9451,58 +9454,58 @@
   <sheetData>
     <row r="1" spans="2:19">
       <c r="B1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="R1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="S1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/excel/finished/焦化/CK67-化产-脱硫解吸（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-化产-脱硫解吸（日）报表设计.xlsx
@@ -496,16 +496,16 @@
     </r>
   </si>
   <si>
-    <t>63202/H2S/三回收脱硫塔</t>
-  </si>
-  <si>
-    <t>63202/H2S/三回收脱硫塔后</t>
-  </si>
-  <si>
-    <t>63202/氰化物/三回收脱硫塔</t>
-  </si>
-  <si>
-    <t>63202/氰化物/三回收脱硫塔后</t>
+    <t>63202/H2S/6#-7#焦炉脱硫塔前</t>
+  </si>
+  <si>
+    <t>63202/H2S/6#-7#焦炉脱硫塔后</t>
+  </si>
+  <si>
+    <t>63202/氰化物/6#-7#焦炉脱硫塔前</t>
+  </si>
+  <si>
+    <t>63202/氰化物/6#-7#焦炉脱硫塔后</t>
   </si>
   <si>
     <t>61206/密度</t>
@@ -555,9 +555,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -630,106 +630,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="65"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="4"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -750,6 +651,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="4"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -758,9 +717,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="65"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -790,8 +790,140 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor theme="9" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor theme="9" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor theme="4" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor theme="8" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor theme="5" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor theme="6" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor theme="7" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor theme="6" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor theme="5" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor theme="6" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor theme="9" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor theme="8" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor theme="4" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor theme="5" tint="0.399975585192419"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor theme="7" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
@@ -802,26 +934,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor theme="7" tint="0.399975585192419"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="47"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor theme="8" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -832,146 +964,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor theme="6" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor theme="5" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor theme="6" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor theme="6" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor theme="7" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor theme="5" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor theme="7" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor theme="9" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor theme="8" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor theme="8" tint="0.399975585192419"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor theme="8" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor theme="7" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor theme="9" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor theme="9" tint="0.399975585192419"/>
       </patternFill>
     </fill>
   </fills>
@@ -1524,15 +1524,6 @@
       <top/>
       <bottom style="medium">
         <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1561,17 +1552,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1583,15 +1574,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1611,17 +1593,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1631,148 +1631,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="45">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="47">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="50">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="45">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="51">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="52">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="46">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="52">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="47">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="50">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="51">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="46">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="48">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="49">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2453,7 +2453,7 @@
   <dimension ref="A1:BD37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09166666666667" defaultRowHeight="14.25"/>
@@ -9441,7 +9441,7 @@
   <dimension ref="B1:S1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/excel/finished/焦化/CK67-化产-脱硫解吸（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-化产-脱硫解吸（日）报表设计.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemao\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemao\AppData\Local\Temp\Rar$DIa0.008\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A67883-D3E8-4BAA-AF77-07655D5F946D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E462B04C-EC84-45E5-A28A-23DD69481EE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1839,6 +1839,87 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1917,12 +1998,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1935,87 +2010,12 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
-  <dxfs count="103">
+  <dxfs count="204">
     <dxf>
       <fill>
         <patternFill patternType="darkDown"/>
@@ -2027,8 +2027,519 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
       <fill>
-        <patternFill patternType="darkDown"/>
+        <patternFill patternType="solid"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="solid"/>
       </fill>
     </dxf>
     <dxf>
@@ -2806,8 +3317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BV40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BH11" sqref="BH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="14"/>
@@ -2839,90 +3350,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:74" ht="23.15" customHeight="1">
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="120"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="120"/>
-      <c r="AH1" s="119"/>
-      <c r="AI1" s="119"/>
-      <c r="AJ1" s="120"/>
-      <c r="AK1" s="120"/>
-      <c r="AL1" s="120"/>
-      <c r="AM1" s="120"/>
-      <c r="AN1" s="120"/>
-      <c r="AO1" s="119"/>
-      <c r="AP1" s="119"/>
-      <c r="AQ1" s="119"/>
-      <c r="AR1" s="119"/>
-      <c r="AS1" s="119"/>
-      <c r="AT1" s="119"/>
-      <c r="AU1" s="119"/>
-      <c r="AV1" s="119"/>
-      <c r="AW1" s="119"/>
-      <c r="AX1" s="119"/>
-      <c r="AY1" s="119"/>
-      <c r="AZ1" s="119"/>
-      <c r="BA1" s="119"/>
-      <c r="BB1" s="119"/>
-      <c r="BC1" s="120"/>
-      <c r="BD1" s="120"/>
-      <c r="BE1" s="119"/>
-      <c r="BF1" s="119"/>
-      <c r="BG1" s="120"/>
-      <c r="BH1" s="120"/>
-      <c r="BI1" s="120"/>
-      <c r="BJ1" s="120"/>
-      <c r="BK1" s="120"/>
-      <c r="BL1" s="120"/>
-      <c r="BM1" s="119"/>
-      <c r="BN1" s="119"/>
-      <c r="BO1" s="119"/>
-      <c r="BP1" s="119"/>
-      <c r="BQ1" s="119"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="82"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="81"/>
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="81"/>
+      <c r="AU1" s="81"/>
+      <c r="AV1" s="81"/>
+      <c r="AW1" s="81"/>
+      <c r="AX1" s="81"/>
+      <c r="AY1" s="81"/>
+      <c r="AZ1" s="81"/>
+      <c r="BA1" s="81"/>
+      <c r="BB1" s="81"/>
+      <c r="BC1" s="82"/>
+      <c r="BD1" s="82"/>
+      <c r="BE1" s="81"/>
+      <c r="BF1" s="81"/>
+      <c r="BG1" s="82"/>
+      <c r="BH1" s="82"/>
+      <c r="BI1" s="82"/>
+      <c r="BJ1" s="82"/>
+      <c r="BK1" s="82"/>
+      <c r="BL1" s="82"/>
+      <c r="BM1" s="81"/>
+      <c r="BN1" s="81"/>
+      <c r="BO1" s="81"/>
+      <c r="BP1" s="81"/>
+      <c r="BQ1" s="81"/>
     </row>
     <row r="2" spans="1:74" s="1" customFormat="1" ht="15.5" customHeight="1" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="121" t="str">
+      <c r="E2" s="83" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -2972,14 +3483,14 @@
       <c r="BD2" s="3"/>
       <c r="BE2" s="3"/>
       <c r="BF2" s="3"/>
-      <c r="BG2" s="121" t="s">
+      <c r="BG2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="BH2" s="121"/>
-      <c r="BI2" s="121"/>
-      <c r="BJ2" s="121"/>
-      <c r="BK2" s="121"/>
-      <c r="BL2" s="121"/>
+      <c r="BH2" s="83"/>
+      <c r="BI2" s="83"/>
+      <c r="BJ2" s="83"/>
+      <c r="BK2" s="83"/>
+      <c r="BL2" s="83"/>
       <c r="BM2" s="4"/>
       <c r="BN2" s="4"/>
       <c r="BO2" s="4"/>
@@ -2987,474 +3498,474 @@
       <c r="BQ2" s="4"/>
     </row>
     <row r="3" spans="1:74" ht="17.5" customHeight="1">
-      <c r="A3" s="126"/>
-      <c r="B3" s="127" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="122" t="s">
+      <c r="C3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="123"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="124"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="123"/>
-      <c r="AF3" s="123"/>
-      <c r="AG3" s="124"/>
-      <c r="AH3" s="123"/>
-      <c r="AI3" s="123"/>
-      <c r="AJ3" s="124"/>
-      <c r="AK3" s="124"/>
-      <c r="AL3" s="124"/>
-      <c r="AM3" s="124"/>
-      <c r="AN3" s="124"/>
-      <c r="AO3" s="123"/>
-      <c r="AP3" s="123"/>
-      <c r="AQ3" s="123"/>
-      <c r="AR3" s="123"/>
-      <c r="AS3" s="123"/>
-      <c r="AT3" s="123"/>
-      <c r="AU3" s="123"/>
-      <c r="AV3" s="123"/>
-      <c r="AW3" s="123"/>
-      <c r="AX3" s="123"/>
-      <c r="AY3" s="123"/>
-      <c r="AZ3" s="123"/>
-      <c r="BA3" s="123"/>
-      <c r="BB3" s="123"/>
-      <c r="BC3" s="124"/>
-      <c r="BD3" s="124"/>
-      <c r="BE3" s="123"/>
-      <c r="BF3" s="123"/>
-      <c r="BG3" s="124"/>
-      <c r="BH3" s="124"/>
-      <c r="BI3" s="124"/>
-      <c r="BJ3" s="124"/>
-      <c r="BK3" s="124"/>
-      <c r="BL3" s="124"/>
-      <c r="BM3" s="123"/>
-      <c r="BN3" s="123"/>
-      <c r="BO3" s="123"/>
-      <c r="BP3" s="123"/>
-      <c r="BQ3" s="125"/>
-      <c r="BR3" s="86" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="85"/>
+      <c r="AF3" s="85"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="85"/>
+      <c r="AI3" s="85"/>
+      <c r="AJ3" s="86"/>
+      <c r="AK3" s="86"/>
+      <c r="AL3" s="86"/>
+      <c r="AM3" s="86"/>
+      <c r="AN3" s="86"/>
+      <c r="AO3" s="85"/>
+      <c r="AP3" s="85"/>
+      <c r="AQ3" s="85"/>
+      <c r="AR3" s="85"/>
+      <c r="AS3" s="85"/>
+      <c r="AT3" s="85"/>
+      <c r="AU3" s="85"/>
+      <c r="AV3" s="85"/>
+      <c r="AW3" s="85"/>
+      <c r="AX3" s="85"/>
+      <c r="AY3" s="85"/>
+      <c r="AZ3" s="85"/>
+      <c r="BA3" s="85"/>
+      <c r="BB3" s="85"/>
+      <c r="BC3" s="86"/>
+      <c r="BD3" s="86"/>
+      <c r="BE3" s="85"/>
+      <c r="BF3" s="85"/>
+      <c r="BG3" s="86"/>
+      <c r="BH3" s="86"/>
+      <c r="BI3" s="86"/>
+      <c r="BJ3" s="86"/>
+      <c r="BK3" s="86"/>
+      <c r="BL3" s="86"/>
+      <c r="BM3" s="85"/>
+      <c r="BN3" s="85"/>
+      <c r="BO3" s="85"/>
+      <c r="BP3" s="85"/>
+      <c r="BQ3" s="87"/>
+      <c r="BR3" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="BS3" s="87"/>
-      <c r="BT3" s="87"/>
-      <c r="BU3" s="87"/>
-      <c r="BV3" s="88"/>
+      <c r="BS3" s="114"/>
+      <c r="BT3" s="114"/>
+      <c r="BU3" s="114"/>
+      <c r="BV3" s="115"/>
     </row>
     <row r="4" spans="1:74" ht="19" customHeight="1">
-      <c r="A4" s="126"/>
-      <c r="B4" s="128"/>
-      <c r="C4" s="130" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="133" t="s">
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="131"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="133" t="s">
+      <c r="K4" s="93"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="131"/>
-      <c r="O4" s="131"/>
-      <c r="P4" s="132"/>
-      <c r="Q4" s="133" t="s">
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="131"/>
-      <c r="S4" s="131"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="133" t="s">
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="V4" s="131"/>
-      <c r="W4" s="131"/>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="133" t="s">
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="132"/>
-      <c r="AA4" s="133" t="s">
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="132"/>
-      <c r="AE4" s="133" t="s">
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="AF4" s="131"/>
-      <c r="AG4" s="131"/>
-      <c r="AH4" s="131"/>
-      <c r="AI4" s="131"/>
-      <c r="AJ4" s="133" t="s">
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="AK4" s="131"/>
-      <c r="AL4" s="131"/>
-      <c r="AM4" s="131"/>
-      <c r="AN4" s="132"/>
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="94"/>
       <c r="AO4" s="5"/>
       <c r="AP4" s="5"/>
       <c r="AQ4" s="5"/>
       <c r="AR4" s="6"/>
-      <c r="AS4" s="133" t="s">
+      <c r="AS4" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="131"/>
-      <c r="AU4" s="131"/>
-      <c r="AV4" s="131"/>
-      <c r="AW4" s="131"/>
-      <c r="AX4" s="131"/>
-      <c r="AY4" s="131"/>
-      <c r="AZ4" s="132"/>
-      <c r="BA4" s="111" t="s">
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="93"/>
+      <c r="AW4" s="93"/>
+      <c r="AX4" s="93"/>
+      <c r="AY4" s="93"/>
+      <c r="AZ4" s="94"/>
+      <c r="BA4" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="BB4" s="112"/>
-      <c r="BC4" s="112"/>
-      <c r="BD4" s="112"/>
-      <c r="BE4" s="112"/>
-      <c r="BF4" s="113"/>
-      <c r="BG4" s="111" t="s">
+      <c r="BB4" s="97"/>
+      <c r="BC4" s="97"/>
+      <c r="BD4" s="97"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="98"/>
+      <c r="BG4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="BH4" s="112"/>
-      <c r="BI4" s="112"/>
-      <c r="BJ4" s="112"/>
-      <c r="BK4" s="112"/>
-      <c r="BL4" s="113"/>
-      <c r="BM4" s="111" t="s">
+      <c r="BH4" s="97"/>
+      <c r="BI4" s="97"/>
+      <c r="BJ4" s="97"/>
+      <c r="BK4" s="97"/>
+      <c r="BL4" s="98"/>
+      <c r="BM4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="BN4" s="112"/>
-      <c r="BO4" s="112"/>
-      <c r="BP4" s="112"/>
-      <c r="BQ4" s="114"/>
-      <c r="BR4" s="89"/>
-      <c r="BS4" s="90"/>
-      <c r="BT4" s="90"/>
-      <c r="BU4" s="90"/>
-      <c r="BV4" s="91"/>
+      <c r="BN4" s="97"/>
+      <c r="BO4" s="97"/>
+      <c r="BP4" s="97"/>
+      <c r="BQ4" s="99"/>
+      <c r="BR4" s="116"/>
+      <c r="BS4" s="117"/>
+      <c r="BT4" s="117"/>
+      <c r="BU4" s="117"/>
+      <c r="BV4" s="118"/>
     </row>
     <row r="5" spans="1:74" ht="42" customHeight="1">
-      <c r="A5" s="126"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="117" t="s">
+      <c r="A5" s="88"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="105" t="s">
+      <c r="G5" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="115" t="s">
+      <c r="H5" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="116"/>
-      <c r="J5" s="105" t="s">
+      <c r="I5" s="101"/>
+      <c r="J5" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="105" t="s">
+      <c r="K5" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="105" t="s">
+      <c r="L5" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="105" t="s">
+      <c r="M5" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="105" t="s">
+      <c r="N5" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="105" t="s">
+      <c r="O5" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="105" t="s">
+      <c r="P5" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="105" t="s">
+      <c r="Q5" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="105" t="s">
+      <c r="R5" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="105" t="s">
+      <c r="S5" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="105" t="s">
+      <c r="T5" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="U5" s="105" t="s">
+      <c r="U5" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="105" t="s">
+      <c r="V5" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="105" t="s">
+      <c r="W5" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="X5" s="105" t="s">
+      <c r="X5" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="Y5" s="105" t="s">
+      <c r="Y5" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="Z5" s="105" t="s">
+      <c r="Z5" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="AA5" s="105" t="s">
+      <c r="AA5" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="AB5" s="105" t="s">
+      <c r="AB5" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="AC5" s="105" t="s">
+      <c r="AC5" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="AD5" s="105" t="s">
+      <c r="AD5" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="AE5" s="105" t="s">
+      <c r="AE5" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="AF5" s="105" t="s">
+      <c r="AF5" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="AG5" s="105" t="s">
+      <c r="AG5" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="AH5" s="105" t="s">
+      <c r="AH5" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="AI5" s="105" t="s">
+      <c r="AI5" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="AJ5" s="105" t="s">
+      <c r="AJ5" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="AK5" s="105" t="s">
+      <c r="AK5" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="AL5" s="105" t="s">
+      <c r="AL5" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="AM5" s="105" t="s">
+      <c r="AM5" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="AN5" s="105" t="s">
+      <c r="AN5" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="AO5" s="105" t="s">
+      <c r="AO5" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="AP5" s="105" t="s">
+      <c r="AP5" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="AQ5" s="105" t="s">
+      <c r="AQ5" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="AR5" s="105" t="s">
+      <c r="AR5" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="AS5" s="105" t="s">
+      <c r="AS5" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="AT5" s="105" t="s">
+      <c r="AT5" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="AU5" s="105" t="s">
+      <c r="AU5" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="AV5" s="105" t="s">
+      <c r="AV5" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="AW5" s="105" t="s">
+      <c r="AW5" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="AX5" s="105" t="s">
+      <c r="AX5" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="AY5" s="105" t="s">
+      <c r="AY5" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="AZ5" s="105" t="s">
+      <c r="AZ5" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="BA5" s="105" t="s">
+      <c r="BA5" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="BB5" s="105" t="s">
+      <c r="BB5" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="BC5" s="105" t="s">
+      <c r="BC5" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="BD5" s="105" t="s">
+      <c r="BD5" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="BE5" s="105" t="s">
+      <c r="BE5" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="BF5" s="105" t="s">
+      <c r="BF5" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="BG5" s="105" t="s">
+      <c r="BG5" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="BH5" s="105" t="s">
+      <c r="BH5" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="BI5" s="105" t="s">
+      <c r="BI5" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="BJ5" s="105" t="s">
+      <c r="BJ5" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="BK5" s="105" t="s">
+      <c r="BK5" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="BL5" s="105" t="s">
+      <c r="BL5" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="BM5" s="105" t="s">
+      <c r="BM5" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="BN5" s="105" t="s">
+      <c r="BN5" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="BO5" s="105" t="s">
+      <c r="BO5" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="BP5" s="105" t="s">
+      <c r="BP5" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="BQ5" s="107" t="s">
+      <c r="BQ5" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="BR5" s="92"/>
-      <c r="BS5" s="93"/>
-      <c r="BT5" s="93"/>
-      <c r="BU5" s="93"/>
-      <c r="BV5" s="94"/>
+      <c r="BR5" s="119"/>
+      <c r="BS5" s="120"/>
+      <c r="BT5" s="120"/>
+      <c r="BU5" s="120"/>
+      <c r="BV5" s="121"/>
     </row>
     <row r="6" spans="1:74" ht="66" customHeight="1" thickBot="1">
-      <c r="B6" s="129"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
       <c r="H6" s="8" t="s">
         <v>49</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="106"/>
-      <c r="R6" s="106"/>
-      <c r="S6" s="106"/>
-      <c r="T6" s="106"/>
-      <c r="U6" s="106"/>
-      <c r="V6" s="106"/>
-      <c r="W6" s="106"/>
-      <c r="X6" s="106"/>
-      <c r="Y6" s="106"/>
-      <c r="Z6" s="106"/>
-      <c r="AA6" s="106"/>
-      <c r="AB6" s="106"/>
-      <c r="AC6" s="106"/>
-      <c r="AD6" s="106"/>
-      <c r="AE6" s="106"/>
-      <c r="AF6" s="106"/>
-      <c r="AG6" s="106"/>
-      <c r="AH6" s="106"/>
-      <c r="AI6" s="106"/>
-      <c r="AJ6" s="106"/>
-      <c r="AK6" s="106"/>
-      <c r="AL6" s="106"/>
-      <c r="AM6" s="106"/>
-      <c r="AN6" s="106"/>
-      <c r="AO6" s="106"/>
-      <c r="AP6" s="106"/>
-      <c r="AQ6" s="106"/>
-      <c r="AR6" s="106"/>
-      <c r="AS6" s="106"/>
-      <c r="AT6" s="106"/>
-      <c r="AU6" s="106"/>
-      <c r="AV6" s="106"/>
-      <c r="AW6" s="106"/>
-      <c r="AX6" s="106"/>
-      <c r="AY6" s="106"/>
-      <c r="AZ6" s="106"/>
-      <c r="BA6" s="106"/>
-      <c r="BB6" s="106"/>
-      <c r="BC6" s="106"/>
-      <c r="BD6" s="106"/>
-      <c r="BE6" s="106"/>
-      <c r="BF6" s="106"/>
-      <c r="BG6" s="106"/>
-      <c r="BH6" s="106"/>
-      <c r="BI6" s="106"/>
-      <c r="BJ6" s="106"/>
-      <c r="BK6" s="106"/>
-      <c r="BL6" s="106"/>
-      <c r="BM6" s="106"/>
-      <c r="BN6" s="106"/>
-      <c r="BO6" s="106"/>
-      <c r="BP6" s="106"/>
-      <c r="BQ6" s="108"/>
-      <c r="BR6" s="109" t="s">
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="105"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
+      <c r="V6" s="105"/>
+      <c r="W6" s="105"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="105"/>
+      <c r="Z6" s="105"/>
+      <c r="AA6" s="105"/>
+      <c r="AB6" s="105"/>
+      <c r="AC6" s="105"/>
+      <c r="AD6" s="105"/>
+      <c r="AE6" s="105"/>
+      <c r="AF6" s="105"/>
+      <c r="AG6" s="105"/>
+      <c r="AH6" s="105"/>
+      <c r="AI6" s="105"/>
+      <c r="AJ6" s="105"/>
+      <c r="AK6" s="105"/>
+      <c r="AL6" s="105"/>
+      <c r="AM6" s="105"/>
+      <c r="AN6" s="105"/>
+      <c r="AO6" s="105"/>
+      <c r="AP6" s="105"/>
+      <c r="AQ6" s="105"/>
+      <c r="AR6" s="105"/>
+      <c r="AS6" s="105"/>
+      <c r="AT6" s="105"/>
+      <c r="AU6" s="105"/>
+      <c r="AV6" s="105"/>
+      <c r="AW6" s="105"/>
+      <c r="AX6" s="105"/>
+      <c r="AY6" s="105"/>
+      <c r="AZ6" s="105"/>
+      <c r="BA6" s="105"/>
+      <c r="BB6" s="105"/>
+      <c r="BC6" s="105"/>
+      <c r="BD6" s="105"/>
+      <c r="BE6" s="105"/>
+      <c r="BF6" s="105"/>
+      <c r="BG6" s="105"/>
+      <c r="BH6" s="105"/>
+      <c r="BI6" s="105"/>
+      <c r="BJ6" s="105"/>
+      <c r="BK6" s="105"/>
+      <c r="BL6" s="105"/>
+      <c r="BM6" s="105"/>
+      <c r="BN6" s="105"/>
+      <c r="BO6" s="105"/>
+      <c r="BP6" s="105"/>
+      <c r="BQ6" s="133"/>
+      <c r="BR6" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="BS6" s="110"/>
+      <c r="BS6" s="135"/>
       <c r="BT6" s="77" t="s">
         <v>52</v>
       </c>
@@ -4456,7 +4967,7 @@
         <f>IF(_tuoliu_day_hour!AW1="","",_tuoliu_day_hour!AW1)</f>
         <v/>
       </c>
-      <c r="BR11" s="95" t="s">
+      <c r="BR11" s="122" t="s">
         <v>136</v>
       </c>
       <c r="BS11" s="45" t="s">
@@ -4747,7 +5258,7 @@
         <f>IF(_tuoliu_day_hour!AW2="","",_tuoliu_day_hour!AW2)</f>
         <v/>
       </c>
-      <c r="BR12" s="96"/>
+      <c r="BR12" s="123"/>
       <c r="BS12" s="45" t="s">
         <v>138</v>
       </c>
@@ -5036,7 +5547,7 @@
         <f>IF(_tuoliu_day_hour!AW3="","",_tuoliu_day_hour!AW3)</f>
         <v/>
       </c>
-      <c r="BR13" s="95" t="s">
+      <c r="BR13" s="122" t="s">
         <v>139</v>
       </c>
       <c r="BS13" s="45" t="s">
@@ -5327,7 +5838,7 @@
         <f>IF(_tuoliu_day_hour!AW4="","",_tuoliu_day_hour!AW4)</f>
         <v/>
       </c>
-      <c r="BR14" s="96"/>
+      <c r="BR14" s="123"/>
       <c r="BS14" s="45" t="s">
         <v>138</v>
       </c>
@@ -5616,7 +6127,7 @@
         <f>IF(_tuoliu_day_hour!AW5="","",_tuoliu_day_hour!AW5)</f>
         <v/>
       </c>
-      <c r="BR15" s="95" t="s">
+      <c r="BR15" s="122" t="s">
         <v>140</v>
       </c>
       <c r="BS15" s="45" t="s">
@@ -5907,7 +6418,7 @@
         <f>IF(_tuoliu_day_hour!AW6="","",_tuoliu_day_hour!AW6)</f>
         <v/>
       </c>
-      <c r="BR16" s="97"/>
+      <c r="BR16" s="124"/>
       <c r="BS16" s="45" t="s">
         <v>142</v>
       </c>
@@ -6196,7 +6707,7 @@
         <f>IF(_tuoliu_day_hour!AW7="","",_tuoliu_day_hour!AW7)</f>
         <v/>
       </c>
-      <c r="BR17" s="97"/>
+      <c r="BR17" s="124"/>
       <c r="BS17" s="53" t="s">
         <v>143</v>
       </c>
@@ -6485,7 +6996,7 @@
         <f>IF(_tuoliu_day_hour!AW8="","",_tuoliu_day_hour!AW8)</f>
         <v/>
       </c>
-      <c r="BR18" s="97"/>
+      <c r="BR18" s="124"/>
       <c r="BS18" s="45" t="s">
         <v>144</v>
       </c>
@@ -6774,7 +7285,7 @@
         <f>IF(_tuoliu_day_hour!AW9="","",_tuoliu_day_hour!AW9)</f>
         <v/>
       </c>
-      <c r="BR19" s="97"/>
+      <c r="BR19" s="124"/>
       <c r="BS19" s="45" t="s">
         <v>145</v>
       </c>
@@ -7063,7 +7574,7 @@
         <f>IF(_tuoliu_day_hour!AW10="","",_tuoliu_day_hour!AW10)</f>
         <v/>
       </c>
-      <c r="BR20" s="97"/>
+      <c r="BR20" s="124"/>
       <c r="BS20" s="45" t="s">
         <v>146</v>
       </c>
@@ -7352,7 +7863,7 @@
         <f>IF(_tuoliu_day_hour!AW11="","",_tuoliu_day_hour!AW11)</f>
         <v/>
       </c>
-      <c r="BR21" s="96"/>
+      <c r="BR21" s="123"/>
       <c r="BS21" s="45" t="s">
         <v>176</v>
       </c>
@@ -7641,7 +8152,7 @@
         <f>IF(_tuoliu_day_hour!AW12="","",_tuoliu_day_hour!AW12)</f>
         <v/>
       </c>
-      <c r="BR22" s="95" t="s">
+      <c r="BR22" s="122" t="s">
         <v>147</v>
       </c>
       <c r="BS22" s="45" t="s">
@@ -7932,7 +8443,7 @@
         <f>IF(_tuoliu_day_hour!AW13="","",_tuoliu_day_hour!AW13)</f>
         <v/>
       </c>
-      <c r="BR23" s="97"/>
+      <c r="BR23" s="124"/>
       <c r="BS23" s="45" t="s">
         <v>142</v>
       </c>
@@ -8221,7 +8732,7 @@
         <f>IF(_tuoliu_day_hour!AW14="","",_tuoliu_day_hour!AW14)</f>
         <v/>
       </c>
-      <c r="BR24" s="97"/>
+      <c r="BR24" s="124"/>
       <c r="BS24" s="53" t="s">
         <v>143</v>
       </c>
@@ -8510,7 +9021,7 @@
         <f>IF(_tuoliu_day_hour!AW15="","",_tuoliu_day_hour!AW15)</f>
         <v/>
       </c>
-      <c r="BR25" s="97"/>
+      <c r="BR25" s="124"/>
       <c r="BS25" s="45" t="s">
         <v>144</v>
       </c>
@@ -8799,7 +9310,7 @@
         <f>IF(_tuoliu_day_hour!AW16="","",_tuoliu_day_hour!AW16)</f>
         <v/>
       </c>
-      <c r="BR26" s="97"/>
+      <c r="BR26" s="124"/>
       <c r="BS26" s="45" t="s">
         <v>145</v>
       </c>
@@ -9088,7 +9599,7 @@
         <f>IF(_tuoliu_day_hour!AW17="","",_tuoliu_day_hour!AW17)</f>
         <v/>
       </c>
-      <c r="BR27" s="97"/>
+      <c r="BR27" s="124"/>
       <c r="BS27" s="45" t="s">
         <v>146</v>
       </c>
@@ -9377,7 +9888,7 @@
         <f>IF(_tuoliu_day_hour!AW18="","",_tuoliu_day_hour!AW18)</f>
         <v/>
       </c>
-      <c r="BR28" s="96"/>
+      <c r="BR28" s="123"/>
       <c r="BS28" s="45" t="s">
         <v>176</v>
       </c>
@@ -12172,75 +12683,75 @@
       <c r="BV38" s="63"/>
     </row>
     <row r="39" spans="2:74" ht="143.25" customHeight="1">
-      <c r="B39" s="98" t="s">
+      <c r="B39" s="125" t="s">
         <v>152</v>
       </c>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="99"/>
-      <c r="K39" s="99"/>
-      <c r="L39" s="99"/>
-      <c r="M39" s="100"/>
-      <c r="N39" s="100"/>
-      <c r="O39" s="100"/>
-      <c r="P39" s="100"/>
-      <c r="Q39" s="99"/>
-      <c r="R39" s="99"/>
-      <c r="S39" s="99"/>
-      <c r="T39" s="99"/>
-      <c r="U39" s="101"/>
-      <c r="V39" s="99" t="s">
+      <c r="C39" s="126"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="126"/>
+      <c r="J39" s="126"/>
+      <c r="K39" s="126"/>
+      <c r="L39" s="126"/>
+      <c r="M39" s="127"/>
+      <c r="N39" s="127"/>
+      <c r="O39" s="127"/>
+      <c r="P39" s="127"/>
+      <c r="Q39" s="126"/>
+      <c r="R39" s="126"/>
+      <c r="S39" s="126"/>
+      <c r="T39" s="126"/>
+      <c r="U39" s="128"/>
+      <c r="V39" s="126" t="s">
         <v>153</v>
       </c>
-      <c r="W39" s="99"/>
-      <c r="X39" s="99"/>
-      <c r="Y39" s="99"/>
-      <c r="Z39" s="99"/>
-      <c r="AA39" s="99"/>
-      <c r="AB39" s="99"/>
-      <c r="AC39" s="100"/>
-      <c r="AD39" s="99"/>
-      <c r="AE39" s="99"/>
-      <c r="AF39" s="99"/>
-      <c r="AG39" s="100"/>
-      <c r="AH39" s="99"/>
-      <c r="AI39" s="99"/>
-      <c r="AJ39" s="100"/>
-      <c r="AK39" s="100"/>
-      <c r="AL39" s="100"/>
-      <c r="AM39" s="100"/>
-      <c r="AN39" s="100"/>
-      <c r="AO39" s="99"/>
-      <c r="AP39" s="99"/>
-      <c r="AQ39" s="102"/>
-      <c r="AR39" s="103" t="s">
+      <c r="W39" s="126"/>
+      <c r="X39" s="126"/>
+      <c r="Y39" s="126"/>
+      <c r="Z39" s="126"/>
+      <c r="AA39" s="126"/>
+      <c r="AB39" s="126"/>
+      <c r="AC39" s="127"/>
+      <c r="AD39" s="126"/>
+      <c r="AE39" s="126"/>
+      <c r="AF39" s="126"/>
+      <c r="AG39" s="127"/>
+      <c r="AH39" s="126"/>
+      <c r="AI39" s="126"/>
+      <c r="AJ39" s="127"/>
+      <c r="AK39" s="127"/>
+      <c r="AL39" s="127"/>
+      <c r="AM39" s="127"/>
+      <c r="AN39" s="127"/>
+      <c r="AO39" s="126"/>
+      <c r="AP39" s="126"/>
+      <c r="AQ39" s="129"/>
+      <c r="AR39" s="130" t="s">
         <v>154</v>
       </c>
-      <c r="AS39" s="99"/>
-      <c r="AT39" s="99"/>
-      <c r="AU39" s="99"/>
-      <c r="AV39" s="99"/>
-      <c r="AW39" s="99"/>
-      <c r="AX39" s="99"/>
-      <c r="AY39" s="99"/>
-      <c r="AZ39" s="99"/>
-      <c r="BA39" s="99"/>
-      <c r="BB39" s="99"/>
-      <c r="BC39" s="100"/>
-      <c r="BD39" s="100"/>
-      <c r="BE39" s="99"/>
-      <c r="BF39" s="99"/>
-      <c r="BG39" s="100"/>
-      <c r="BH39" s="100"/>
-      <c r="BI39" s="100"/>
-      <c r="BJ39" s="100"/>
-      <c r="BK39" s="100"/>
-      <c r="BL39" s="104"/>
+      <c r="AS39" s="126"/>
+      <c r="AT39" s="126"/>
+      <c r="AU39" s="126"/>
+      <c r="AV39" s="126"/>
+      <c r="AW39" s="126"/>
+      <c r="AX39" s="126"/>
+      <c r="AY39" s="126"/>
+      <c r="AZ39" s="126"/>
+      <c r="BA39" s="126"/>
+      <c r="BB39" s="126"/>
+      <c r="BC39" s="127"/>
+      <c r="BD39" s="127"/>
+      <c r="BE39" s="126"/>
+      <c r="BF39" s="126"/>
+      <c r="BG39" s="127"/>
+      <c r="BH39" s="127"/>
+      <c r="BI39" s="127"/>
+      <c r="BJ39" s="127"/>
+      <c r="BK39" s="127"/>
+      <c r="BL39" s="131"/>
       <c r="BM39" s="72"/>
       <c r="BN39" s="72"/>
       <c r="BO39" s="72"/>
@@ -12253,75 +12764,75 @@
       <c r="BV39" s="63"/>
     </row>
     <row r="40" spans="2:74" ht="27" customHeight="1">
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
-      <c r="M40" s="81"/>
-      <c r="N40" s="81"/>
-      <c r="O40" s="81"/>
-      <c r="P40" s="81"/>
-      <c r="Q40" s="80"/>
-      <c r="R40" s="80"/>
-      <c r="S40" s="80"/>
-      <c r="T40" s="80"/>
-      <c r="U40" s="82"/>
-      <c r="V40" s="80" t="s">
+      <c r="C40" s="107"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="107"/>
+      <c r="L40" s="107"/>
+      <c r="M40" s="108"/>
+      <c r="N40" s="108"/>
+      <c r="O40" s="108"/>
+      <c r="P40" s="108"/>
+      <c r="Q40" s="107"/>
+      <c r="R40" s="107"/>
+      <c r="S40" s="107"/>
+      <c r="T40" s="107"/>
+      <c r="U40" s="109"/>
+      <c r="V40" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="W40" s="80"/>
-      <c r="X40" s="80"/>
-      <c r="Y40" s="80"/>
-      <c r="Z40" s="80"/>
-      <c r="AA40" s="80"/>
-      <c r="AB40" s="80"/>
-      <c r="AC40" s="81"/>
-      <c r="AD40" s="80"/>
-      <c r="AE40" s="80"/>
-      <c r="AF40" s="80"/>
-      <c r="AG40" s="81"/>
-      <c r="AH40" s="80"/>
-      <c r="AI40" s="80"/>
-      <c r="AJ40" s="81"/>
-      <c r="AK40" s="81"/>
-      <c r="AL40" s="81"/>
-      <c r="AM40" s="81"/>
-      <c r="AN40" s="81"/>
-      <c r="AO40" s="80"/>
-      <c r="AP40" s="80"/>
-      <c r="AQ40" s="83"/>
-      <c r="AR40" s="84" t="s">
+      <c r="W40" s="107"/>
+      <c r="X40" s="107"/>
+      <c r="Y40" s="107"/>
+      <c r="Z40" s="107"/>
+      <c r="AA40" s="107"/>
+      <c r="AB40" s="107"/>
+      <c r="AC40" s="108"/>
+      <c r="AD40" s="107"/>
+      <c r="AE40" s="107"/>
+      <c r="AF40" s="107"/>
+      <c r="AG40" s="108"/>
+      <c r="AH40" s="107"/>
+      <c r="AI40" s="107"/>
+      <c r="AJ40" s="108"/>
+      <c r="AK40" s="108"/>
+      <c r="AL40" s="108"/>
+      <c r="AM40" s="108"/>
+      <c r="AN40" s="108"/>
+      <c r="AO40" s="107"/>
+      <c r="AP40" s="107"/>
+      <c r="AQ40" s="110"/>
+      <c r="AR40" s="111" t="s">
         <v>156</v>
       </c>
-      <c r="AS40" s="80"/>
-      <c r="AT40" s="80"/>
-      <c r="AU40" s="80"/>
-      <c r="AV40" s="80"/>
-      <c r="AW40" s="80"/>
-      <c r="AX40" s="80"/>
-      <c r="AY40" s="80"/>
-      <c r="AZ40" s="80"/>
-      <c r="BA40" s="80"/>
-      <c r="BB40" s="80"/>
-      <c r="BC40" s="81"/>
-      <c r="BD40" s="81"/>
-      <c r="BE40" s="80"/>
-      <c r="BF40" s="80"/>
-      <c r="BG40" s="81"/>
-      <c r="BH40" s="81"/>
-      <c r="BI40" s="81"/>
-      <c r="BJ40" s="81"/>
-      <c r="BK40" s="81"/>
-      <c r="BL40" s="85"/>
+      <c r="AS40" s="107"/>
+      <c r="AT40" s="107"/>
+      <c r="AU40" s="107"/>
+      <c r="AV40" s="107"/>
+      <c r="AW40" s="107"/>
+      <c r="AX40" s="107"/>
+      <c r="AY40" s="107"/>
+      <c r="AZ40" s="107"/>
+      <c r="BA40" s="107"/>
+      <c r="BB40" s="107"/>
+      <c r="BC40" s="108"/>
+      <c r="BD40" s="108"/>
+      <c r="BE40" s="107"/>
+      <c r="BF40" s="107"/>
+      <c r="BG40" s="108"/>
+      <c r="BH40" s="108"/>
+      <c r="BI40" s="108"/>
+      <c r="BJ40" s="108"/>
+      <c r="BK40" s="108"/>
+      <c r="BL40" s="112"/>
       <c r="BM40" s="72"/>
       <c r="BN40" s="72"/>
       <c r="BO40" s="72"/>
@@ -12335,6 +12846,87 @@
     </row>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="B40:U40"/>
+    <mergeCell ref="V40:AQ40"/>
+    <mergeCell ref="AR40:BL40"/>
+    <mergeCell ref="BR3:BV5"/>
+    <mergeCell ref="BR13:BR14"/>
+    <mergeCell ref="BR15:BR21"/>
+    <mergeCell ref="BR22:BR28"/>
+    <mergeCell ref="B39:U39"/>
+    <mergeCell ref="V39:AQ39"/>
+    <mergeCell ref="AR39:BL39"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BQ5:BQ6"/>
+    <mergeCell ref="BR6:BS6"/>
+    <mergeCell ref="BR11:BR12"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BK5:BK6"/>
+    <mergeCell ref="BL5:BL6"/>
+    <mergeCell ref="BM5:BM6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BE5:BE6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BI5:BI6"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BC5:BC6"/>
+    <mergeCell ref="BD5:BD6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="AW5:AW6"/>
+    <mergeCell ref="AX5:AX6"/>
+    <mergeCell ref="AY5:AY6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AK5:AK6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="AI5:AI6"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="BA4:BF4"/>
+    <mergeCell ref="BG4:BL4"/>
+    <mergeCell ref="BM4:BQ4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
     <mergeCell ref="B1:BQ1"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="BG2:BL2"/>
@@ -12351,586 +12943,505 @@
     <mergeCell ref="AE4:AI4"/>
     <mergeCell ref="AJ4:AN4"/>
     <mergeCell ref="AS4:AZ4"/>
-    <mergeCell ref="BA4:BF4"/>
-    <mergeCell ref="BG4:BL4"/>
-    <mergeCell ref="BM4:BQ4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="AI5:AI6"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="AK5:AK6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="AW5:AW6"/>
-    <mergeCell ref="AX5:AX6"/>
-    <mergeCell ref="AY5:AY6"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="BD5:BD6"/>
-    <mergeCell ref="BK5:BK6"/>
-    <mergeCell ref="BL5:BL6"/>
-    <mergeCell ref="BM5:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BE5:BE6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="BI5:BI6"/>
-    <mergeCell ref="B40:U40"/>
-    <mergeCell ref="V40:AQ40"/>
-    <mergeCell ref="AR40:BL40"/>
-    <mergeCell ref="BR3:BV5"/>
-    <mergeCell ref="BR13:BR14"/>
-    <mergeCell ref="BR15:BR21"/>
-    <mergeCell ref="BR22:BR28"/>
-    <mergeCell ref="B39:U39"/>
-    <mergeCell ref="V39:AQ39"/>
-    <mergeCell ref="AR39:BL39"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BQ5:BQ6"/>
-    <mergeCell ref="BR6:BS6"/>
-    <mergeCell ref="BR11:BR12"/>
-    <mergeCell ref="BJ5:BJ6"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="C11:C38">
-    <cfRule type="cellIs" dxfId="102" priority="200" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="203" priority="200" operator="greaterThan">
       <formula>C$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C38">
-    <cfRule type="cellIs" dxfId="101" priority="199" operator="lessThan">
+    <cfRule type="cellIs" dxfId="202" priority="199" operator="lessThan">
       <formula>C$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D38">
-    <cfRule type="cellIs" dxfId="100" priority="100" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="201" priority="100" operator="greaterThan">
       <formula>D$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D38">
-    <cfRule type="cellIs" dxfId="99" priority="99" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="99" operator="lessThan">
       <formula>D$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E38">
-    <cfRule type="cellIs" dxfId="98" priority="98" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="199" priority="98" operator="greaterThan">
       <formula>E$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E38">
-    <cfRule type="cellIs" dxfId="97" priority="97" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="97" operator="lessThan">
       <formula>E$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F38">
-    <cfRule type="cellIs" dxfId="96" priority="96" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="197" priority="96" operator="greaterThan">
       <formula>F$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F38">
-    <cfRule type="cellIs" dxfId="95" priority="95" operator="lessThan">
+    <cfRule type="cellIs" dxfId="196" priority="95" operator="lessThan">
       <formula>F$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G38">
-    <cfRule type="cellIs" dxfId="94" priority="94" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="195" priority="94" operator="greaterThan">
       <formula>G$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G38">
-    <cfRule type="cellIs" dxfId="93" priority="93" operator="lessThan">
+    <cfRule type="cellIs" dxfId="194" priority="93" operator="lessThan">
       <formula>G$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H38">
-    <cfRule type="cellIs" dxfId="92" priority="92" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="193" priority="92" operator="greaterThan">
       <formula>H$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H38">
-    <cfRule type="cellIs" dxfId="91" priority="91" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="91" operator="lessThan">
       <formula>H$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I38">
-    <cfRule type="cellIs" dxfId="90" priority="90" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="191" priority="90" operator="greaterThan">
       <formula>I$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I38">
-    <cfRule type="cellIs" dxfId="89" priority="89" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="89" operator="lessThan">
       <formula>I$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J38">
-    <cfRule type="cellIs" dxfId="88" priority="88" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="189" priority="88" operator="greaterThan">
       <formula>J$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J38">
-    <cfRule type="cellIs" dxfId="87" priority="87" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="87" operator="lessThan">
       <formula>J$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K38">
-    <cfRule type="cellIs" dxfId="86" priority="86" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="187" priority="86" operator="greaterThan">
       <formula>K$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K38">
-    <cfRule type="cellIs" dxfId="85" priority="85" operator="lessThan">
+    <cfRule type="cellIs" dxfId="186" priority="85" operator="lessThan">
       <formula>K$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L38">
-    <cfRule type="cellIs" dxfId="84" priority="84" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="185" priority="84" operator="greaterThan">
       <formula>L$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L38">
-    <cfRule type="cellIs" dxfId="83" priority="83" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="83" operator="lessThan">
       <formula>L$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:M38">
-    <cfRule type="cellIs" dxfId="82" priority="82" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="183" priority="82" operator="greaterThan">
       <formula>M$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:M38">
-    <cfRule type="cellIs" dxfId="81" priority="81" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="81" operator="lessThan">
       <formula>M$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:N38">
-    <cfRule type="cellIs" dxfId="80" priority="80" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="181" priority="80" operator="greaterThan">
       <formula>N$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:N38">
-    <cfRule type="cellIs" dxfId="79" priority="79" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="79" operator="lessThan">
       <formula>N$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:O38">
-    <cfRule type="cellIs" dxfId="78" priority="78" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="179" priority="78" operator="greaterThan">
       <formula>O$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:O38">
-    <cfRule type="cellIs" dxfId="77" priority="77" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="77" operator="lessThan">
       <formula>O$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:P38">
-    <cfRule type="cellIs" dxfId="76" priority="76" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="177" priority="76" operator="greaterThan">
       <formula>P$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:P38">
-    <cfRule type="cellIs" dxfId="75" priority="75" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="75" operator="lessThan">
       <formula>P$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q38">
-    <cfRule type="cellIs" dxfId="74" priority="74" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="175" priority="74" operator="greaterThan">
       <formula>Q$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q38">
-    <cfRule type="cellIs" dxfId="73" priority="73" operator="lessThan">
+    <cfRule type="cellIs" dxfId="174" priority="73" operator="lessThan">
       <formula>Q$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R38">
-    <cfRule type="cellIs" dxfId="72" priority="72" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="173" priority="72" operator="greaterThan">
       <formula>R$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R38">
-    <cfRule type="cellIs" dxfId="71" priority="71" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="71" operator="lessThan">
       <formula>R$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:S38">
-    <cfRule type="cellIs" dxfId="70" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="171" priority="70" operator="greaterThan">
       <formula>S$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:S38">
-    <cfRule type="cellIs" dxfId="69" priority="69" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="69" operator="lessThan">
       <formula>S$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:T38">
-    <cfRule type="cellIs" dxfId="68" priority="68" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="169" priority="68" operator="greaterThan">
       <formula>T$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:T38">
-    <cfRule type="cellIs" dxfId="67" priority="67" operator="lessThan">
+    <cfRule type="cellIs" dxfId="168" priority="67" operator="lessThan">
       <formula>T$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11:Y38">
-    <cfRule type="cellIs" dxfId="66" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="167" priority="66" operator="greaterThan">
       <formula>Y$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11:Y38">
-    <cfRule type="cellIs" dxfId="65" priority="65" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="65" operator="lessThan">
       <formula>Y$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11:Z38">
-    <cfRule type="cellIs" dxfId="64" priority="64" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="165" priority="64" operator="greaterThan">
       <formula>Z$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11:Z38">
-    <cfRule type="cellIs" dxfId="63" priority="63" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="63" operator="lessThan">
       <formula>Z$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA11:AA38">
-    <cfRule type="cellIs" dxfId="62" priority="62" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="163" priority="62" operator="greaterThan">
       <formula>AA$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA11:AA38">
-    <cfRule type="cellIs" dxfId="61" priority="61" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="61" operator="lessThan">
       <formula>AA$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB11:AB38">
-    <cfRule type="cellIs" dxfId="60" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="161" priority="60" operator="greaterThan">
       <formula>AB$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB11:AB38">
-    <cfRule type="cellIs" dxfId="59" priority="59" operator="lessThan">
+    <cfRule type="cellIs" dxfId="160" priority="59" operator="lessThan">
       <formula>AB$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC11:AC38">
-    <cfRule type="cellIs" dxfId="58" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="159" priority="58" operator="greaterThan">
       <formula>AC$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC11:AC38">
-    <cfRule type="cellIs" dxfId="57" priority="57" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="57" operator="lessThan">
       <formula>AC$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD11:AD38">
-    <cfRule type="cellIs" dxfId="56" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="157" priority="56" operator="greaterThan">
       <formula>AD$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD11:AD38">
-    <cfRule type="cellIs" dxfId="55" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="55" operator="lessThan">
       <formula>AD$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE11:AE38">
-    <cfRule type="cellIs" dxfId="54" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="155" priority="54" operator="greaterThan">
       <formula>AE$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE11:AE38">
-    <cfRule type="cellIs" dxfId="53" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="53" operator="lessThan">
       <formula>AE$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF11:AF38">
-    <cfRule type="cellIs" dxfId="52" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="52" operator="greaterThan">
       <formula>AF$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF11:AF38">
-    <cfRule type="cellIs" dxfId="51" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="51" operator="lessThan">
       <formula>AF$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG11:AG38">
-    <cfRule type="cellIs" dxfId="50" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="50" operator="greaterThan">
       <formula>AG$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG11:AG38">
-    <cfRule type="cellIs" dxfId="49" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="49" operator="lessThan">
       <formula>AG$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH11:AH38">
-    <cfRule type="cellIs" dxfId="48" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="48" operator="greaterThan">
       <formula>AH$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH11:AH38">
-    <cfRule type="cellIs" dxfId="47" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="148" priority="47" operator="lessThan">
       <formula>AH$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI11:AI38">
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="147" priority="46" operator="greaterThan">
       <formula>AI$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI11:AI38">
-    <cfRule type="cellIs" dxfId="45" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="45" operator="lessThan">
       <formula>AI$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ11:AJ38">
-    <cfRule type="cellIs" dxfId="44" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="145" priority="44" operator="greaterThan">
       <formula>AJ$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ11:AJ38">
-    <cfRule type="cellIs" dxfId="43" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="43" operator="lessThan">
       <formula>AJ$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK11:AK38">
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="143" priority="42" operator="greaterThan">
       <formula>AK$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK11:AK38">
-    <cfRule type="cellIs" dxfId="41" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="41" operator="lessThan">
       <formula>AK$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL11:AL38">
-    <cfRule type="cellIs" dxfId="40" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="40" operator="greaterThan">
       <formula>AL$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL11:AL38">
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="39" operator="lessThan">
       <formula>AL$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM11:AM38">
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="139" priority="38" operator="greaterThan">
       <formula>AM$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM11:AM38">
-    <cfRule type="cellIs" dxfId="37" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="37" operator="lessThan">
       <formula>AM$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN11:AN38">
-    <cfRule type="cellIs" dxfId="36" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="137" priority="36" operator="greaterThan">
       <formula>AN$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN11:AN38">
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="35" operator="lessThan">
       <formula>AN$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO11:AO38">
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="34" operator="greaterThan">
       <formula>AO$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO11:AO38">
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="33" operator="lessThan">
       <formula>AO$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP11:AP38">
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="133" priority="32" operator="greaterThan">
       <formula>AP$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP11:AP38">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="31" operator="lessThan">
       <formula>AP$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ11:AQ38">
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="30" operator="greaterThan">
       <formula>AQ$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ11:AQ38">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="29" operator="lessThan">
       <formula>AQ$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR11:AR38">
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="28" operator="greaterThan">
       <formula>AR$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR11:AR38">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="27" operator="lessThan">
       <formula>AR$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA11:BA38">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="127" priority="26" operator="greaterThan">
       <formula>BA$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA11:BA38">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="25" operator="lessThan">
       <formula>BA$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB11:BB38">
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="125" priority="24" operator="greaterThan">
       <formula>BB$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB11:BB38">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="23" operator="lessThan">
       <formula>BB$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC11:BC38">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="22" operator="greaterThan">
       <formula>BC$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC11:BC38">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="21" operator="lessThan">
       <formula>BC$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD11:BD38">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="20" operator="greaterThan">
       <formula>BD$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD11:BD38">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="19" operator="lessThan">
       <formula>BD$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE11:BE38">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="18" operator="greaterThan">
       <formula>BE$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE11:BE38">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="17" operator="lessThan">
       <formula>BE$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF11:BF38">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="117" priority="16" operator="greaterThan">
       <formula>BF$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF11:BF38">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="15" operator="lessThan">
       <formula>BF$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:BG38">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="115" priority="14" operator="greaterThan">
       <formula>BG$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG11:BG38">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="13" operator="lessThan">
       <formula>BG$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH11:BH38">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="12" operator="greaterThan">
       <formula>BH$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH11:BH38">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="11" operator="lessThan">
       <formula>BH$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI11:BI38">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="10" operator="greaterThan">
       <formula>BI$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI11:BI38">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="9" operator="lessThan">
       <formula>BI$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ11:BJ38">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="8" operator="greaterThan">
       <formula>BJ$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ11:BJ38">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="7" operator="lessThan">
       <formula>BJ$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK11:BK38">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="6" operator="greaterThan">
       <formula>BK$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK11:BK38">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="5" operator="lessThan">
       <formula>BK$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL11:BL38">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="4" operator="greaterThan">
       <formula>BL$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL11:BL38">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="3" operator="lessThan">
       <formula>BL$9+0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12945,8 +13456,11 @@
           <x14:cfRule type="expression" priority="2" id="{2FED7DAF-BA8C-4BAC-A5E7-4D58518EF553}">
             <xm:f>_tuoliu_day_hour!$BK$2=0</xm:f>
             <x14:dxf>
+              <font>
+                <strike/>
+              </font>
               <fill>
-                <patternFill patternType="darkDown"/>
+                <patternFill patternType="solid"/>
               </fill>
             </x14:dxf>
           </x14:cfRule>
@@ -12956,8 +13470,11 @@
           <x14:cfRule type="expression" priority="1" id="{A21DB28C-8BF1-4888-9DCE-3ADA1EC7B366}">
             <xm:f>_tuoliu_day_hour!$BL$2=0</xm:f>
             <x14:dxf>
+              <font>
+                <strike/>
+              </font>
               <fill>
-                <patternFill patternType="darkDown"/>
+                <patternFill patternType="solid"/>
               </fill>
             </x14:dxf>
           </x14:cfRule>
@@ -13136,40 +13653,40 @@
       <c r="AZ1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="BA1" s="135" t="s">
+      <c r="BA1" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="BB1" s="135" t="s">
+      <c r="BB1" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="BC1" s="135" t="s">
+      <c r="BC1" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="BD1" s="135" t="s">
+      <c r="BD1" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="BE1" s="135" t="s">
+      <c r="BE1" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="BF1" s="135" t="s">
+      <c r="BF1" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="BG1" s="135" t="s">
+      <c r="BG1" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="BH1" s="135" t="s">
+      <c r="BH1" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="BI1" s="135" t="s">
+      <c r="BI1" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="BJ1" s="135" t="s">
+      <c r="BJ1" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="BK1" s="134" t="s">
+      <c r="BK1" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="BL1" s="134" t="s">
+      <c r="BL1" s="79" t="s">
         <v>178</v>
       </c>
     </row>

--- a/excel/finished/焦化/CK67-化产-脱硫解吸（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-化产-脱硫解吸（日）报表设计.xlsx
@@ -661,58 +661,58 @@
     <t>CK67_L1R_CC_B3101BC101_1m_avg</t>
   </si>
   <si>
-    <t>63202/H2S/6#-7#焦炉脱硫塔前</t>
-  </si>
-  <si>
-    <t>63202/H2S/6#-7#焦炉脱硫塔后</t>
-  </si>
-  <si>
-    <t>63202/氰化物/6#-7#焦炉脱硫塔前</t>
-  </si>
-  <si>
-    <t>63202/氰化物/6#-7#焦炉脱硫塔后</t>
-  </si>
-  <si>
-    <t>61206/密度</t>
-  </si>
-  <si>
-    <t>61206/PH</t>
-  </si>
-  <si>
-    <t>61206/K2CO3</t>
-  </si>
-  <si>
-    <t>61206/KHCO3</t>
-  </si>
-  <si>
-    <t>61206/KHS</t>
-  </si>
-  <si>
-    <t>61206/KSCN</t>
-  </si>
-  <si>
-    <t>61206/K2S2O3</t>
-  </si>
-  <si>
-    <t>61205/密度</t>
-  </si>
-  <si>
-    <t>61205/PH</t>
-  </si>
-  <si>
-    <t>61205/K2CO3</t>
-  </si>
-  <si>
-    <t>61205/KHCO3</t>
-  </si>
-  <si>
-    <t>61205/KHS</t>
-  </si>
-  <si>
-    <t>61205/KSCN</t>
-  </si>
-  <si>
-    <t>61205/K2S2O3</t>
+    <t>63202/H2S/6#-7#焦炉脱硫塔前/QMIR21MQJH</t>
+  </si>
+  <si>
+    <t>63202/H2S/6#-7#焦炉脱硫塔后/QMIR21MQJH</t>
+  </si>
+  <si>
+    <t>63202/氰化物/6#-7#焦炉脱硫塔前/QMIR21MQJH</t>
+  </si>
+  <si>
+    <t>63202/氰化物/6#-7#焦炉脱硫塔后/QMIR21MQJH</t>
+  </si>
+  <si>
+    <t>61206/密度/QMIR21TLTQ</t>
+  </si>
+  <si>
+    <t>61206/PH/QMIR21TLTQ</t>
+  </si>
+  <si>
+    <t>61206/K2CO3/QMIR21TLTQ</t>
+  </si>
+  <si>
+    <t>61206/KHCO3/QMIR21TLTQ</t>
+  </si>
+  <si>
+    <t>61206/KHS/QMIR21TLTQ</t>
+  </si>
+  <si>
+    <t>61206/KSCN/QMIR21TLTQ</t>
+  </si>
+  <si>
+    <t>61206/K2S2O3/QMIR21TLTQ</t>
+  </si>
+  <si>
+    <t>61205/密度/QMIR21TLTQ</t>
+  </si>
+  <si>
+    <t>61205/PH/QMIR21TLTQ</t>
+  </si>
+  <si>
+    <t>61205/K2CO3/QMIR21TLTQ</t>
+  </si>
+  <si>
+    <t>61205/KHCO3/QMIR21TLTQ</t>
+  </si>
+  <si>
+    <t>61205/KHS/QMIR21TLTQ</t>
+  </si>
+  <si>
+    <t>61205/KSCN/QMIR21TLTQ</t>
+  </si>
+  <si>
+    <t>61205/K2S2O3/QMIR21TLTQ</t>
   </si>
 </sst>
 </file>
@@ -723,7 +723,7 @@
     <numFmt numFmtId="160" formatCode="0.00_ "/>
     <numFmt numFmtId="161" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -823,6 +823,11 @@
       <color theme="1"/>
       <sz val="12"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color indexed="64"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1498,7 +1503,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="154">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1913,6 +1918,10 @@
     <xf fontId="14" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2968,6 +2977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="55">
+      <pane state="frozen" topLeftCell="C12" xSplit="2" ySplit="11"/>
       <selection activeCell="CA19" activeCellId="0" sqref="CA19"/>
     </sheetView>
   </sheetViews>
@@ -13682,60 +13692,63 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="152"/>
+      <c r="B1" s="153" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="153" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="153" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="153" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="153" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="153" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="153" t="s">
         <v>170</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="153" t="s">
         <v>171</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="153" t="s">
         <v>172</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="153" t="s">
         <v>173</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="153" t="s">
         <v>174</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="153" t="s">
         <v>175</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="153" t="s">
         <v>176</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="153" t="s">
         <v>177</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="153" t="s">
         <v>178</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="153" t="s">
         <v>179</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="153" t="s">
         <v>180</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="153" t="s">
         <v>181</v>
       </c>
+      <c r="T1" s="152"/>
+      <c r="U1" s="152"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
